--- a/models/MLP/Meta_BBoxes/metrics.xlsx
+++ b/models/MLP/Meta_BBoxes/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,40 +500,2049 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.6349798542769299</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.9951351790467964</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.7018225913132946</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.5854197081240031</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>0.7227365841902313</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.5825072313624109</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0.4654778586099008</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5</v>
+        <v>0.6093708769107</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5</v>
+        <v>0.8344042354406727</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5</v>
+        <v>0.8319446634872752</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5</v>
+        <v>0.483933729139923</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5</v>
+        <v>0.6918890295844365</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.538243531608429</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9889632824574829</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7527493202028368</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5547306459405961</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6858230237789203</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5680254974828839</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5245914900501536</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7324666130329847</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8319688570538772</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8228099166308702</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6243180359435173</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5366133302636124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5479212975528307</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9846317067040308</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7621371352980083</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5302105146585052</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8155326156812339</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6132924004955028</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4923921251348436</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6347996781979083</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8573759951310971</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8531769687300015</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6273114713172488</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6714124553931161</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5795613441394025</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9845062066130738</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8161297588246164</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.502599971810567</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6144862628534704</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5658066481030282</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5404665587918015</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6816862429605792</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8099360956503813</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8114266553286988</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6813245599957204</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7127754115344768</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4941553928348276</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9882537121643782</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7768434670116429</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5964052627203192</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7532841876908244</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6074945815430244</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5530744336569581</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6152043772127453</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8008223069447559</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8380557987016738</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6157318247472315</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.6806852721746339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5621639454731788</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9824515114862962</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.721878444918057</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4906872957569397</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7445674003856042</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6457978893609472</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5713956657773001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6430120675784393</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8373379009654314</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8222232341383989</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.6376163350449294</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.6750224473350984</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5102904634218247</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9864498089899031</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7895142206217389</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.517742195252469</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6851602667095116</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.642924353454421</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.578488204695088</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6644054706355591</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.864991591404547</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8050819226622017</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.6751043003851093</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.6532381719811212</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5961157243421709</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9933330463437294</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7709737635040788</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5277263208762887</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6905627410025706</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6346078906598994</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5526537216828479</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6507288817377314</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8620191222232039</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8442790016743957</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8417589471994865</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.669777828939795</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5175455473063274</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9914482884078882</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7188914941785252</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4688330581507732</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7997168219794344</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5344867236835562</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5275391046386192</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6922477876106196</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8359199379607543</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.803385610716133</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7014925373134328</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.5633613445378151</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6076987341949888</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9867247032599143</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7677172762554393</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5872651313601596</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8009199742889281</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6116012015665996</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5258597992430476</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.7392983585452204</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7592185592185593</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.7816616975992963</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.6924851548708073</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.6030349083540573</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5525631396442561</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9923413699680191</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7515425883736312</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5401550298993656</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8133334672236503</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5597438846276918</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5026818105786185</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.6603572003218021</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8484160697601993</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8574182957900092</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.8129011553273428</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.6196753770001151</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.591315578891213</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.992479888740611</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.753610641581539</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6021098405540344</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.825353470437018</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6546054194823834</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5585898831575166</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6486082059533387</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8081071317346621</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8345438367332626</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.5235478177150192</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.4900149648900656</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5711561783894651</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9825941962370108</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7192739031380907</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5243335212628866</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7797839010282777</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5200117856158459</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5632295037756202</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6580852775543041</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8124539859233736</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.766884221230637</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.7476595517038463</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.6662783469552205</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4637116030109493</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9785538917873295</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7707187904269083</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.4889255798969072</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6269581458868894</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.594904529859281</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.639128910463862</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.6589026548672566</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8754822275230438</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8143743808680558</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.692059416180745</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6691654195924945</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5464128504131593</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9942958280024128</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7764318475832059</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5509384353175923</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.6787220793829343</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5984923381117153</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5560254511546268</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6310009655616351</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8107049413171862</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8485219431349112</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.4921360937249238</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6729299069724601</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5803582709775238</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9906650845207527</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7727169839053427</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5250468882319629</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7251365681233933</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6035344174832641</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.593704326270501</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6762349155269509</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8172569293055122</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.8622851189828317</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.6859154364569962</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.6511154598825832</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5783138661537814</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.993062604930574</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7258146542220916</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5590064370658617</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7520987307197943</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5835590658948988</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5919534714091023</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6732292839903459</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8418573653067583</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8191805980485838</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.6966262836970476</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5811027972832968</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5569087954485332</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9869802768709059</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.736662012199603</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5206537934922681</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.652474293059126</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.6002173368943635</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.567725188781014</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6975253419147225</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.8472062706756585</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8090443671046978</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.6921842400898732</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.6643720501899389</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6579150791387669</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.986330037118865</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6880226621696544</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5810999919458762</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8178020565552699</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5815878126398489</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5126739482200647</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6889782783588093</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8306203433754453</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8429662227910689</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.6453931061538187</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.6366754921146541</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5957813520173547</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9845610278223617</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7870398682817829</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4528547971400067</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7119857785633938</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5987806887460867</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6043853875267401</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.604068233022208</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8557250006229598</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.7778826885394498</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.8490611458834859</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.7128327346412453</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5858018278558493</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9926602408768551</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7529124715220109</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4389569771247772</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8970416934447301</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5963616663340081</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5363826817557359</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6941786001609012</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8355702273435067</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.8556479360982339</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.8089497753530167</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.7271186830896743</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5432536395670424</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9850283425378304</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7734783567281546</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4997090591700913</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7856884640102828</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.6030686955667709</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5539858341171277</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.7857119871279165</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.8188053565867331</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8183806576605798</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.4633544608472401</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.6820766662829516</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5403389551003021</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9944950070752195</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7731549937532153</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5502350797358248</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.6849393476863753</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5387515484461679</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5312594390507013</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6667868061142397</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.8267465716445308</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8579788026755267</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.6412917491396066</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5803246229998849</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5241109557461926</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9870819961700775</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7398990482350766</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.548193862757732</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.6375220919023137</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5762890955198648</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5193783710895361</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6890555108608206</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8089250130066457</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.7908320256682242</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.6880650510886428</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5533647979739841</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5498283475733472</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.983973669948357</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7720216394213808</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5181191802460925</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7232845894263217</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5749426467419546</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.5346607426910208</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6901126488574186</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.855548080037876</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.7907904149578556</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.5744061948322902</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6475315464677166</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5404581572629895</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9867462877663274</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7499801572719924</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5986471251409246</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8056515102827764</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5564109631572778</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5327370098086261</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.6977345132743363</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.7984901899719715</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.7910908925322807</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.7026034980744544</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.6384989064118798</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5502063708216928</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9890594471191567</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7675725729403984</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4465474155622171</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.7884700353470436</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.6257496697176204</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5773680414830576</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.6883346741753822</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8457178449081282</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8432971570337772</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.5656691270860077</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.6394152181420513</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.570384888910266</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9924286819261817</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7625486881752039</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5227730347938144</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.6345296433161954</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.6591454161241165</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5423462783171521</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.5917683024939663</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.8451522022950594</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.8064231925730465</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.8153141104513275</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.619689190744791</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5149499606625187</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9949286159648613</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7279644474219183</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.5139185325386597</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.7125441838046273</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.5414698423748197</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.5116666666666667</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6090297666934835</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.8500701868048807</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.8528328847822848</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.5479769610727724</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.6287325889259813</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5893786111949677</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9846165111394499</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.735078795719158</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5422867475889591</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.7772778402699663</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.6333700901174949</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.5041385552081619</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.7246668812359189</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8075751912486606</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8240283658951653</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.8277162574225646</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5919683153725707</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.6027326585335038</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9848405263574492</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7906548100242522</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5121337912187823</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.7748935571979434</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5561891908160905</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5145511532059702</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.7409235720032181</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.8408794767985052</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.8344969135322563</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.6423900834403081</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.6637366179348452</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5809812441212394</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9942280373105001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.7854516057911369</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.53366860800399</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7077743412596401</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5576307110338076</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.5582827637456503</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.657229283990346</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.8715839302398006</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7939748051652041</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.882160622593068</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7052377115229654</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6007606391567694</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9889098190715702</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.6844506504005291</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5307994724548969</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.7655446658097687</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6043803205560783</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.4962729234088458</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.7662172164119067</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.8759423682893069</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.8394596347888597</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.6153283760409423</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.6763577759871072</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5948823482930281</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9927999747263994</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.7735746627240805</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.4344041961984536</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.616574951799486</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.6569725523345433</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.4719444444444444</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.7229670152855994</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.7809312758292349</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.7765821286742467</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.6056812710640347</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.7081109704155636</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5418951270368368</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9847805260862034</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7009232035752088</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5198703026272031</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.850554394986341</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.6211738088900719</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.5841369096593715</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7260894753781784</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.8337893399117889</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.8250236604623675</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.8096011876103354</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.6824352952012526</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5517278291754995</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9833739284757104</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7519997060336592</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.4814784989531325</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.7831780205655527</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.6780245787117561</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.5382089454012982</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.6411230893000806</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8879227654936158</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.7497950869741954</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.6122031450577663</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.6529388741798089</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5762975389928543</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9906977180160501</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.7429999265084148</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5105518004561537</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7871344794344474</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.578813137793492</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.5055377468952147</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6641158487530169</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.8116798505138586</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.8034732754161883</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.5631217907573813</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6995142166455623</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.6002006383322281</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9924451722562521</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.7485147350628353</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5408495086984536</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7508435089974292</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5469983113620307</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5522114347357067</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.6130008045052293</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8397090437906766</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8458372417178774</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.7144563918757467</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.6871555197421435</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5168120492938149</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9909768385502953</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7402989858621328</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5365304848582474</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8512612467866324</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.465538138332256</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.6052562028047467</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.6276363636363637</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.8116699060576611</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8327116445021084</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.8759963622746484</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.5591527569932081</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4817711441388946</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.986551122224008</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.7956309537810186</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5344040987695378</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.7983689538807649</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5618623014816786</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5406094015687566</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.6697972320566462</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.7761755251551169</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.8529318978578949</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.7647648852511636</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.6776365478493138</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5591631452597886</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9834207957295946</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.7489468655838907</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.4840190358428711</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.7248353149100257</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6019851792712562</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.5794342421691405</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.7032148028962188</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.8291709747742136</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.8425801493144019</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.8340821566110397</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.6970277426038909</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6157642037876766</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9908469988987931</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.7572984493275521</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.5285459712488115</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5715074710796915</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6439096562845529</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.5713750997452555</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.7001705551086083</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.8461663033322951</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.8385391554382797</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.7452463093709883</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5788097156670887</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5611654888326216</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9944373777111839</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.7879797163224811</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5103470320554123</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.7274060089974292</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.5853459173296076</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.5682254584681768</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.7294867256637169</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.8384758665370912</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.7981038125378054</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6487276877262432</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.694928053413146</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5771942240896552</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9882495115390652</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.7306903760857512</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.539208480992268</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.7691396208226221</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6271847496395008</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.6199892125134844</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.7237522123893805</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.8764380932748279</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.8332003752049164</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6455357620499652</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6363900080580177</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5751268964258384</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9790933991201982</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.6410178760437493</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.6743535916195543</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.6595592961594087</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.553519145214647</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.5379436125281114</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.5551335693595109</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.801542448481224</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.8556711795573605</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.5309741614508104</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.6259509993552547</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5569450098973762</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9891085709445244</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.764738737414566</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.4751063752409354</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.7324068123393316</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.604861883354085</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.5517619605187027</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.6825132743362832</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.7898822796636562</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8120308935540692</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.6405247111681643</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.698528836192011</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.6140409372323848</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9885956348881226</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.7820592342176819</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.4739581980371885</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.7530225739074551</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.5768045140175961</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.503900690744463</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.6768913917940467</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.8660218000622858</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.7752496252334073</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.6637917201540436</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.6174329457810521</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.635209278835748</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9909653821104567</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.7273447490262365</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.5506201675257733</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.670740279562982</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5584322596383843</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.5841801510248112</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.6333065164923571</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.8114134542705971</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.8223277607805665</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.670215232083311</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.6841211004949925</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.561749538772327</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9908483875581675</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.6826632092034743</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5609797841494846</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.6745762371465296</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.6219388643031177</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.5667529665587917</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.7214094931617056</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.8115582452317147</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.855620622244041</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.6342659462543911</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.6390284332911246</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5621529216015277</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9791055741427567</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.7809449606021404</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.4922576488194213</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.7983890406556323</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.6487794212707707</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.520986232241786</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.6409333762471838</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.8548204629837283</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.8269164974517794</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7172331214884407</v>
       </c>
     </row>
   </sheetData>
